--- a/DAX/RESULTS.xlsx
+++ b/DAX/RESULTS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabelle/Documents/PTSFC Code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/isabelle/Documents/Seminar/PTSFC2021_Isabelle/DAX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BEFB9E9-68FD-484D-99FA-9F5C4D184517}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42BD9604-4C7B-F748-A8F8-42B775725114}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -105,7 +105,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -156,15 +156,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,100 +476,101 @@
   <dimension ref="A1:AW15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AY12" sqref="AY12"/>
+      <selection activeCell="AW19" sqref="AW19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.5" style="5" customWidth="1"/>
     <col min="2" max="5" width="0" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
     <col min="8" max="12" width="0" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5" customWidth="1"/>
+    <col min="13" max="13" width="16.83203125" customWidth="1"/>
     <col min="14" max="18" width="0" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="14.5" customWidth="1"/>
-    <col min="20" max="24" width="0" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="14.5" customWidth="1"/>
+    <col min="19" max="19" width="17.33203125" customWidth="1"/>
+    <col min="20" max="23" width="0" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="4.5" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="15.5" customWidth="1"/>
     <col min="26" max="30" width="0" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="14.5" customWidth="1"/>
+    <col min="31" max="31" width="17.6640625" customWidth="1"/>
     <col min="32" max="36" width="0" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="14.5" customWidth="1"/>
+    <col min="37" max="37" width="22.1640625" customWidth="1"/>
     <col min="38" max="42" width="0" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="14.5" customWidth="1"/>
+    <col min="43" max="43" width="19.5" customWidth="1"/>
     <col min="44" max="48" width="0" hidden="1" customWidth="1"/>
-    <col min="49" max="49" width="14.5" customWidth="1"/>
+    <col min="49" max="49" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="4"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2" t="s">
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2" t="s">
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2" t="s">
+      <c r="AA1" s="3"/>
+      <c r="AB1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2" t="s">
+      <c r="AG1" s="3"/>
+      <c r="AH1" s="3"/>
+      <c r="AI1" s="3"/>
+      <c r="AJ1" s="3"/>
+      <c r="AK1" s="3"/>
+      <c r="AL1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2" t="s">
+      <c r="AM1" s="3"/>
+      <c r="AN1" s="3"/>
+      <c r="AO1" s="3"/>
+      <c r="AP1" s="3"/>
+      <c r="AQ1" s="3"/>
+      <c r="AR1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
+      <c r="AS1" s="3"/>
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+      <c r="AW1" s="3"/>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
+      <c r="A2" s="4"/>
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
@@ -710,7 +717,7 @@
       </c>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B4">
@@ -728,138 +735,138 @@
       <c r="F4">
         <v>4.7279986380230152</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>3.9968687265668721</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>3.0046553287638398</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>4.150505944041595</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>4.5081558429281134</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>4.7398232004284981</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <v>5.6004976893419283</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <v>4.4007276011007948</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="2">
         <v>2.7880809802814062</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="2">
         <v>4.1197602892557788</v>
       </c>
-      <c r="P4" s="3">
+      <c r="P4" s="2">
         <v>4.1905734976640598</v>
       </c>
-      <c r="Q4" s="3">
+      <c r="Q4" s="2">
         <v>4.2792875228018934</v>
       </c>
-      <c r="R4" s="3">
+      <c r="R4" s="2">
         <v>4.8780656027504428</v>
       </c>
-      <c r="S4" s="3">
+      <c r="S4" s="2">
         <v>4.051153578550716</v>
       </c>
-      <c r="T4" s="3">
+      <c r="T4" s="2">
         <v>2.8472750054517002</v>
       </c>
-      <c r="U4" s="3">
+      <c r="U4" s="2">
         <v>4.098530293702952</v>
       </c>
-      <c r="V4" s="3">
+      <c r="V4" s="2">
         <v>4.3167989476066921</v>
       </c>
-      <c r="W4" s="3">
+      <c r="W4" s="2">
         <v>4.4128246980621544</v>
       </c>
-      <c r="X4" s="3">
+      <c r="X4" s="2">
         <v>5.0512406276616328</v>
       </c>
-      <c r="Y4" s="3">
+      <c r="Y4" s="2">
         <v>4.1453339144970256</v>
       </c>
-      <c r="Z4" s="3">
+      <c r="Z4" s="2">
         <v>2.7130557187129778</v>
       </c>
-      <c r="AA4" s="3">
+      <c r="AA4" s="2">
         <v>4.0135867085656498</v>
       </c>
-      <c r="AB4" s="3">
+      <c r="AB4" s="2">
         <v>4.3572981532247681</v>
       </c>
-      <c r="AC4" s="3">
+      <c r="AC4" s="2">
         <v>4.129425439105237</v>
       </c>
-      <c r="AD4" s="3">
+      <c r="AD4" s="2">
         <v>4.6561400461799201</v>
       </c>
-      <c r="AE4" s="3">
+      <c r="AE4" s="2">
         <v>3.9739012131577112</v>
       </c>
-      <c r="AF4" s="3">
+      <c r="AF4" s="2">
         <v>2.766980351048415</v>
       </c>
-      <c r="AG4" s="3">
+      <c r="AG4" s="2">
         <v>3.8756320644541109</v>
       </c>
-      <c r="AH4" s="3">
+      <c r="AH4" s="2">
         <v>4.324007350343213</v>
       </c>
-      <c r="AI4" s="3">
+      <c r="AI4" s="2">
         <v>4.1283650714483544</v>
       </c>
-      <c r="AJ4" s="3">
+      <c r="AJ4" s="2">
         <v>4.6548033253259851</v>
       </c>
-      <c r="AK4" s="3">
+      <c r="AK4" s="2">
         <v>3.9499576325240162</v>
       </c>
-      <c r="AL4" s="3">
+      <c r="AL4" s="2">
         <v>2.7363802445136338</v>
       </c>
-      <c r="AM4" s="3">
+      <c r="AM4" s="2">
         <v>4.0667905143327898</v>
       </c>
-      <c r="AN4" s="3">
+      <c r="AN4" s="2">
         <v>4.3743773538699164</v>
       </c>
-      <c r="AO4" s="3">
+      <c r="AO4" s="2">
         <v>4.2420863405275364</v>
       </c>
-      <c r="AP4" s="3">
+      <c r="AP4" s="2">
         <v>4.8592220750020596</v>
       </c>
-      <c r="AQ4" s="3">
+      <c r="AQ4" s="2">
         <v>4.0557713056491869</v>
       </c>
-      <c r="AR4" s="3">
+      <c r="AR4" s="2">
         <v>3.4360273400817798</v>
       </c>
-      <c r="AS4" s="3">
+      <c r="AS4" s="2">
         <v>3.875851143059359</v>
       </c>
-      <c r="AT4" s="3">
+      <c r="AT4" s="2">
         <v>4.5292976828949367</v>
       </c>
-      <c r="AU4" s="3">
+      <c r="AU4" s="2">
         <v>4.5703693347585306</v>
       </c>
-      <c r="AV4" s="3">
+      <c r="AV4" s="2">
         <v>4.9624915970630061</v>
       </c>
-      <c r="AW4" s="3">
+      <c r="AW4" s="2">
         <v>4.2748074195715224</v>
       </c>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B5">
@@ -877,138 +884,138 @@
       <c r="F5">
         <v>0.94559972760460309</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="2">
         <v>0.79937374531337435</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <v>0.600931065752768</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="2">
         <v>0.83010118880831896</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="2">
         <v>0.90163116858562253</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5" s="2">
         <v>0.94796464008569958</v>
       </c>
-      <c r="L5" s="3">
+      <c r="L5" s="2">
         <v>1.120099537868386</v>
       </c>
-      <c r="M5" s="3">
+      <c r="M5" s="2">
         <v>0.88014552022015879</v>
       </c>
-      <c r="N5" s="3">
+      <c r="N5" s="2">
         <v>0.55761619605628121</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="2">
         <v>0.82395205785115577</v>
       </c>
-      <c r="P5" s="3">
+      <c r="P5" s="2">
         <v>0.83811469953281192</v>
       </c>
-      <c r="Q5" s="3">
+      <c r="Q5" s="2">
         <v>0.85585750456037868</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="2">
         <v>0.97561312055008853</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="2">
         <v>0.81023071571014316</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5" s="2">
         <v>0.56945500109034008</v>
       </c>
-      <c r="U5" s="3">
+      <c r="U5" s="2">
         <v>0.81970605874059044</v>
       </c>
-      <c r="V5" s="3">
+      <c r="V5" s="2">
         <v>0.86335978952133841</v>
       </c>
-      <c r="W5" s="3">
+      <c r="W5" s="2">
         <v>0.88256493961243088</v>
       </c>
-      <c r="X5" s="3">
+      <c r="X5" s="2">
         <v>1.010248125532327</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="Y5" s="2">
         <v>0.82906678289940527</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="Z5" s="2">
         <v>0.54261114374259567</v>
       </c>
-      <c r="AA5" s="3">
+      <c r="AA5" s="2">
         <v>0.80271734171312992</v>
       </c>
-      <c r="AB5" s="3">
+      <c r="AB5" s="2">
         <v>0.87145963064495358</v>
       </c>
-      <c r="AC5" s="3">
+      <c r="AC5" s="2">
         <v>0.82588508782104741</v>
       </c>
-      <c r="AD5" s="3">
+      <c r="AD5" s="2">
         <v>0.93122800923598403</v>
       </c>
-      <c r="AE5" s="3">
+      <c r="AE5" s="2">
         <v>0.79478024263154212</v>
       </c>
-      <c r="AF5" s="3">
+      <c r="AF5" s="2">
         <v>0.55339607020968296</v>
       </c>
-      <c r="AG5" s="3">
+      <c r="AG5" s="2">
         <v>0.77512641289082218</v>
       </c>
-      <c r="AH5" s="3">
+      <c r="AH5" s="2">
         <v>0.86480147006864261</v>
       </c>
-      <c r="AI5" s="3">
+      <c r="AI5" s="2">
         <v>0.82567301428967088</v>
       </c>
-      <c r="AJ5" s="3">
+      <c r="AJ5" s="2">
         <v>0.93096066506519703</v>
       </c>
-      <c r="AK5" s="3">
+      <c r="AK5" s="2">
         <v>0.78999152650480309</v>
       </c>
-      <c r="AL5" s="3">
+      <c r="AL5" s="2">
         <v>0.54727604890272674</v>
       </c>
-      <c r="AM5" s="3">
+      <c r="AM5" s="2">
         <v>0.81335810286655796</v>
       </c>
-      <c r="AN5" s="3">
+      <c r="AN5" s="2">
         <v>0.87487547077398331</v>
       </c>
-      <c r="AO5" s="3">
+      <c r="AO5" s="2">
         <v>0.84841726810550733</v>
       </c>
-      <c r="AP5" s="3">
+      <c r="AP5" s="2">
         <v>0.97184441500041197</v>
       </c>
-      <c r="AQ5" s="3">
+      <c r="AQ5" s="2">
         <v>0.81115426112983735</v>
       </c>
-      <c r="AR5" s="3">
+      <c r="AR5" s="2">
         <v>0.68720546801635607</v>
       </c>
-      <c r="AS5" s="3">
+      <c r="AS5" s="2">
         <v>0.7751702286118719</v>
       </c>
-      <c r="AT5" s="3">
+      <c r="AT5" s="2">
         <v>0.90585953657898732</v>
       </c>
-      <c r="AU5" s="3">
+      <c r="AU5" s="2">
         <v>0.91407386695170612</v>
       </c>
-      <c r="AV5" s="3">
+      <c r="AV5" s="2">
         <v>0.99249831941260125</v>
       </c>
-      <c r="AW5" s="3">
+      <c r="AW5" s="2">
         <v>0.85496148391430449</v>
       </c>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B6">
@@ -1026,138 +1033,138 @@
       <c r="F6">
         <v>0.27929632353757422</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <v>0.25019571494681803</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <v>0.22029472202451769</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="2">
         <v>0.37300746121788092</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="2">
         <v>0.43518279294415391</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="2">
         <v>0.30694650938497758</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="2">
         <v>0.40368038241719278</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="2">
         <v>0.34782237359774448</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="2">
         <v>0.19983550520739091</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="2">
         <v>0.26305579205646601</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="2">
         <v>0.28706059471783968</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="2">
         <v>0.26224169099922612</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="2">
         <v>0.28871982226821141</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="2">
         <v>0.26018268104982678</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="2">
         <v>0.2245264491837986</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="2">
         <v>0.31367911099240398</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6" s="2">
         <v>0.39625804166822098</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6" s="2">
         <v>0.21520881686339299</v>
       </c>
-      <c r="X6" s="3">
+      <c r="X6" s="2">
         <v>0.32042445781951112</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Y6" s="2">
         <v>0.29401937530546562</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="Z6" s="2">
         <v>0.1981789661921646</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AA6" s="2">
         <v>0.31782033345038552</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="AB6" s="2">
         <v>0.30154048297795338</v>
       </c>
-      <c r="AC6" s="3">
+      <c r="AC6" s="2">
         <v>0.2129454184437817</v>
       </c>
-      <c r="AD6" s="3">
+      <c r="AD6" s="2">
         <v>0.25615010583613529</v>
       </c>
-      <c r="AE6" s="3">
+      <c r="AE6" s="2">
         <v>0.2573270613800841</v>
       </c>
-      <c r="AF6" s="3">
+      <c r="AF6" s="2">
         <v>0.2023675772540921</v>
       </c>
-      <c r="AG6" s="3">
+      <c r="AG6" s="2">
         <v>0.29069037183936353</v>
       </c>
-      <c r="AH6" s="3">
+      <c r="AH6" s="2">
         <v>0.31033875763495622</v>
       </c>
-      <c r="AI6" s="3">
+      <c r="AI6" s="2">
         <v>0.2206743492175097</v>
       </c>
-      <c r="AJ6" s="3">
+      <c r="AJ6" s="2">
         <v>0.25816897972852942</v>
       </c>
-      <c r="AK6" s="3">
+      <c r="AK6" s="2">
         <v>0.25644800713489008</v>
       </c>
-      <c r="AL6" s="3">
+      <c r="AL6" s="2">
         <v>0.1911452659974876</v>
       </c>
-      <c r="AM6" s="3">
+      <c r="AM6" s="2">
         <v>0.30557015376344587</v>
       </c>
-      <c r="AN6" s="3">
+      <c r="AN6" s="2">
         <v>0.29681488213724988</v>
       </c>
-      <c r="AO6" s="3">
+      <c r="AO6" s="2">
         <v>0.21535939040102919</v>
       </c>
-      <c r="AP6" s="3">
+      <c r="AP6" s="2">
         <v>0.2563495431542564</v>
       </c>
-      <c r="AQ6" s="3">
+      <c r="AQ6" s="2">
         <v>0.25304784709069378</v>
       </c>
-      <c r="AR6" s="3">
+      <c r="AR6" s="2">
         <v>0.32327240839545829</v>
       </c>
-      <c r="AS6" s="3">
+      <c r="AS6" s="2">
         <v>0.26963666040179612</v>
       </c>
-      <c r="AT6" s="3">
+      <c r="AT6" s="2">
         <v>0.4085232951733393</v>
       </c>
-      <c r="AU6" s="3">
+      <c r="AU6" s="2">
         <v>0.30040300545682491</v>
       </c>
-      <c r="AV6" s="3">
+      <c r="AV6" s="2">
         <v>0.24801820285123491</v>
       </c>
-      <c r="AW6" s="3">
+      <c r="AW6" s="2">
         <v>0.30997071445573071</v>
       </c>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B7">
@@ -1175,138 +1182,138 @@
       <c r="F7">
         <v>1.2054556388498161</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <v>1.1014669383784681</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <v>0.98345434933975451</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>1.1539858399782139</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>1.3370663862256249</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7" s="2">
         <v>1.388382630084972</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="2">
         <v>1.740298705243897</v>
       </c>
-      <c r="M7" s="3">
+      <c r="M7" s="2">
         <v>1.3206375821744929</v>
       </c>
-      <c r="N7" s="3">
+      <c r="N7" s="2">
         <v>0.87753668835570597</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="2">
         <v>1.2231078579387671</v>
       </c>
-      <c r="P7" s="3">
+      <c r="P7" s="2">
         <v>1.23029564384597</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="Q7" s="2">
         <v>1.2549748036430559</v>
       </c>
-      <c r="R7" s="3">
+      <c r="R7" s="2">
         <v>1.4159666130749891</v>
       </c>
-      <c r="S7" s="3">
+      <c r="S7" s="2">
         <v>1.200376321371698</v>
       </c>
-      <c r="T7" s="3">
+      <c r="T7" s="2">
         <v>0.87517129111368253</v>
       </c>
-      <c r="U7" s="3">
+      <c r="U7" s="2">
         <v>1.154968941166971</v>
       </c>
-      <c r="V7" s="3">
+      <c r="V7" s="2">
         <v>1.2931718240308741</v>
       </c>
-      <c r="W7" s="3">
+      <c r="W7" s="2">
         <v>1.386348606646757</v>
       </c>
-      <c r="X7" s="3">
+      <c r="X7" s="2">
         <v>1.46709479085539</v>
       </c>
-      <c r="Y7" s="3">
+      <c r="Y7" s="2">
         <v>1.235351090762735</v>
       </c>
-      <c r="Z7" s="3">
+      <c r="Z7" s="2">
         <v>0.829009849451248</v>
       </c>
-      <c r="AA7" s="3">
+      <c r="AA7" s="2">
         <v>1.1117100119370169</v>
       </c>
-      <c r="AB7" s="3">
+      <c r="AB7" s="2">
         <v>1.2336921311243989</v>
       </c>
-      <c r="AC7" s="3">
+      <c r="AC7" s="2">
         <v>1.0883512662517589</v>
       </c>
-      <c r="AD7" s="3">
+      <c r="AD7" s="2">
         <v>1.146853976313013</v>
       </c>
-      <c r="AE7" s="3">
+      <c r="AE7" s="2">
         <v>1.081923447015487</v>
       </c>
-      <c r="AF7" s="3">
+      <c r="AF7" s="2">
         <v>0.85484889794178531</v>
       </c>
-      <c r="AG7" s="3">
+      <c r="AG7" s="2">
         <v>1.086208815106926</v>
       </c>
-      <c r="AH7" s="3">
+      <c r="AH7" s="2">
         <v>1.2231383416206241</v>
       </c>
-      <c r="AI7" s="3">
+      <c r="AI7" s="2">
         <v>1.0958106203152831</v>
       </c>
-      <c r="AJ7" s="3">
+      <c r="AJ7" s="2">
         <v>1.157920919522512</v>
       </c>
-      <c r="AK7" s="3">
+      <c r="AK7" s="2">
         <v>1.0835855189014261</v>
       </c>
-      <c r="AL7" s="3">
+      <c r="AL7" s="2">
         <v>0.83954105342097596</v>
       </c>
-      <c r="AM7" s="3">
+      <c r="AM7" s="2">
         <v>1.1251642690447281</v>
       </c>
-      <c r="AN7" s="3">
+      <c r="AN7" s="2">
         <v>1.2345616210726409</v>
       </c>
-      <c r="AO7" s="3">
+      <c r="AO7" s="2">
         <v>1.199909715914574</v>
       </c>
-      <c r="AP7" s="3">
+      <c r="AP7" s="2">
         <v>1.3046098947949869</v>
       </c>
-      <c r="AQ7" s="3">
+      <c r="AQ7" s="2">
         <v>1.140757310849581</v>
       </c>
-      <c r="AR7" s="3">
+      <c r="AR7" s="2">
         <v>1.0663008274016581</v>
       </c>
-      <c r="AS7" s="3">
+      <c r="AS7" s="2">
         <v>1.1180317762912471</v>
       </c>
-      <c r="AT7" s="3">
+      <c r="AT7" s="2">
         <v>1.321108695967592</v>
       </c>
-      <c r="AU7" s="3">
+      <c r="AU7" s="2">
         <v>1.393444254045995</v>
       </c>
-      <c r="AV7" s="3">
+      <c r="AV7" s="2">
         <v>1.477718318094674</v>
       </c>
-      <c r="AW7" s="3">
+      <c r="AW7" s="2">
         <v>1.2753207743602331</v>
       </c>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B8">
@@ -1324,138 +1331,138 @@
       <c r="F8">
         <v>1.6629384053495899</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <v>1.3780191977395531</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <v>1.023572925214282</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>1.4191382786945861</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>1.515710805705512</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8" s="2">
         <v>1.673966939649947</v>
       </c>
-      <c r="L8" s="3">
+      <c r="L8" s="2">
         <v>1.922860890134247</v>
       </c>
-      <c r="M8" s="3">
+      <c r="M8" s="2">
         <v>1.5110499678797149</v>
       </c>
-      <c r="N8" s="3">
+      <c r="N8" s="2">
         <v>0.90785158007701805</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="2">
         <v>1.3953865877935969</v>
       </c>
-      <c r="P8" s="3">
+      <c r="P8" s="2">
         <v>1.421112010989565</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="Q8" s="2">
         <v>1.4719851680748011</v>
       </c>
-      <c r="R8" s="3">
+      <c r="R8" s="2">
         <v>1.7118520250467699</v>
       </c>
-      <c r="S8" s="3">
+      <c r="S8" s="2">
         <v>1.38163747439635</v>
       </c>
-      <c r="T8" s="3">
+      <c r="T8" s="2">
         <v>0.96769949854382775</v>
       </c>
-      <c r="U8" s="3">
+      <c r="U8" s="2">
         <v>1.412704159080022</v>
       </c>
-      <c r="V8" s="3">
+      <c r="V8" s="2">
         <v>1.3768077597640029</v>
       </c>
-      <c r="W8" s="3">
+      <c r="W8" s="2">
         <v>1.4947050493850269</v>
       </c>
-      <c r="X8" s="3">
+      <c r="X8" s="2">
         <v>1.7827476802103039</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Y8" s="2">
         <v>1.406932829396637</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="Z8" s="2">
         <v>0.92669000674530766</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AA8" s="2">
         <v>1.380169805078538</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AB8" s="2">
         <v>1.446968530251258</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AC8" s="2">
         <v>1.451961341240283</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AD8" s="2">
         <v>1.6831161848366141</v>
       </c>
-      <c r="AE8" s="3">
+      <c r="AE8" s="2">
         <v>1.3777811736304</v>
       </c>
-      <c r="AF8" s="3">
+      <c r="AF8" s="2">
         <v>0.93699496917407488</v>
       </c>
-      <c r="AG8" s="3">
+      <c r="AG8" s="2">
         <v>1.3466134329928341</v>
       </c>
-      <c r="AH8" s="3">
+      <c r="AH8" s="2">
         <v>1.4269559954492861</v>
       </c>
-      <c r="AI8" s="3">
+      <c r="AI8" s="2">
         <v>1.4528240862296029</v>
       </c>
-      <c r="AJ8" s="3">
+      <c r="AJ8" s="2">
         <v>1.6888304962652161</v>
       </c>
-      <c r="AK8" s="3">
+      <c r="AK8" s="2">
         <v>1.3704437960222029</v>
       </c>
-      <c r="AL8" s="3">
+      <c r="AL8" s="2">
         <v>0.92639782959544403</v>
       </c>
-      <c r="AM8" s="3">
+      <c r="AM8" s="2">
         <v>1.3790911998809059</v>
       </c>
-      <c r="AN8" s="3">
+      <c r="AN8" s="2">
         <v>1.4481422009109</v>
       </c>
-      <c r="AO8" s="3">
+      <c r="AO8" s="2">
         <v>1.453738007650754</v>
       </c>
-      <c r="AP8" s="3">
+      <c r="AP8" s="2">
         <v>1.685280169359811</v>
       </c>
-      <c r="AQ8" s="3">
+      <c r="AQ8" s="2">
         <v>1.378529881479563</v>
       </c>
-      <c r="AR8" s="3">
+      <c r="AR8" s="2">
         <v>1.1239295645127969</v>
       </c>
-      <c r="AS8" s="3">
+      <c r="AS8" s="2">
         <v>1.3337938960700979</v>
       </c>
-      <c r="AT8" s="3">
+      <c r="AT8" s="2">
         <v>1.4830745534872649</v>
       </c>
-      <c r="AU8" s="3">
+      <c r="AU8" s="2">
         <v>1.5533772868381719</v>
       </c>
-      <c r="AV8" s="3">
+      <c r="AV8" s="2">
         <v>1.711516840249526</v>
       </c>
-      <c r="AW8" s="3">
+      <c r="AW8" s="2">
         <v>1.441138428231572</v>
       </c>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B9">
@@ -1473,138 +1480,138 @@
       <c r="F9">
         <v>1.312012537904059</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <v>1.068893812213517</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <v>0.6706812671975122</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="2">
         <v>1.0231710589023151</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>1.056172683266192</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9" s="2">
         <v>1.1371093182895651</v>
       </c>
-      <c r="L9" s="3">
+      <c r="L9" s="2">
         <v>1.2792314487144021</v>
       </c>
-      <c r="M9" s="3">
+      <c r="M9" s="2">
         <v>1.0332731552739971</v>
       </c>
-      <c r="N9" s="3">
+      <c r="N9" s="2">
         <v>0.67655334856387495</v>
       </c>
-      <c r="O9" s="3">
+      <c r="O9" s="2">
         <v>1.068241017567479</v>
       </c>
-      <c r="P9" s="3">
+      <c r="P9" s="2">
         <v>1.0778706788815779</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="Q9" s="2">
         <v>1.089934747094959</v>
       </c>
-      <c r="R9" s="3">
+      <c r="R9" s="2">
         <v>1.216754777170429</v>
       </c>
-      <c r="S9" s="3">
+      <c r="S9" s="2">
         <v>1.0258709138556641</v>
       </c>
-      <c r="T9" s="3">
+      <c r="T9" s="2">
         <v>0.6665169679660079</v>
       </c>
-      <c r="U9" s="3">
+      <c r="U9" s="2">
         <v>1.0731784681922041</v>
       </c>
-      <c r="V9" s="3">
+      <c r="V9" s="2">
         <v>1.089277082355153</v>
       </c>
-      <c r="W9" s="3">
+      <c r="W9" s="2">
         <v>1.105256433430208</v>
       </c>
-      <c r="X9" s="3">
+      <c r="X9" s="2">
         <v>1.2770632222092551</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Y9" s="2">
         <v>1.0422584348305659</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="Z9" s="2">
         <v>0.64739300793673327</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AA9" s="2">
         <v>1.0409868043616211</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AB9" s="2">
         <v>1.150480768557038</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AC9" s="2">
         <v>1.126516380411946</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AD9" s="2">
         <v>1.305279329146394</v>
       </c>
-      <c r="AE9" s="3">
+      <c r="AE9" s="2">
         <v>1.0541312580827471</v>
       </c>
-      <c r="AF9" s="3">
+      <c r="AF9" s="2">
         <v>0.65687169539471002</v>
       </c>
-      <c r="AG9" s="3">
+      <c r="AG9" s="2">
         <v>0.98237343269746857</v>
       </c>
-      <c r="AH9" s="3">
+      <c r="AH9" s="2">
         <v>1.146220855878133</v>
       </c>
-      <c r="AI9" s="3">
+      <c r="AI9" s="2">
         <v>1.1248345684525509</v>
       </c>
-      <c r="AJ9" s="3">
+      <c r="AJ9" s="2">
         <v>1.282870287398572</v>
       </c>
-      <c r="AK9" s="3">
+      <c r="AK9" s="2">
         <v>1.038634167964287</v>
       </c>
-      <c r="AL9" s="3">
+      <c r="AL9" s="2">
         <v>0.661785228348586</v>
       </c>
-      <c r="AM9" s="3">
+      <c r="AM9" s="2">
         <v>1.082928117391089</v>
       </c>
-      <c r="AN9" s="3">
+      <c r="AN9" s="2">
         <v>1.16249117245161</v>
       </c>
-      <c r="AO9" s="3">
+      <c r="AO9" s="2">
         <v>1.1194860741538519</v>
       </c>
-      <c r="AP9" s="3">
+      <c r="AP9" s="2">
         <v>1.3460089530707491</v>
       </c>
-      <c r="AQ9" s="3">
+      <c r="AQ9" s="2">
         <v>1.0745399090831771</v>
       </c>
-      <c r="AR9" s="3">
+      <c r="AR9" s="2">
         <v>0.79142986067061327</v>
       </c>
-      <c r="AS9" s="3">
+      <c r="AS9" s="2">
         <v>0.96573611503382195</v>
       </c>
-      <c r="AT9" s="3">
+      <c r="AT9" s="2">
         <v>1.104855291399246</v>
       </c>
-      <c r="AU9" s="3">
+      <c r="AU9" s="2">
         <v>1.092189253354662</v>
       </c>
-      <c r="AV9" s="3">
+      <c r="AV9" s="2">
         <v>1.2620719773150071</v>
       </c>
-      <c r="AW9" s="3">
+      <c r="AW9" s="2">
         <v>1.04325649955467</v>
       </c>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B10">
@@ -1622,138 +1629,138 @@
       <c r="F10">
         <v>0.26829573238197579</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <v>0.19829306328851681</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <v>0.1066520649877736</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="2">
         <v>0.18120330524859901</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>0.16402317478662901</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10" s="2">
         <v>0.23341780301903561</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="2">
         <v>0.25442626283218889</v>
       </c>
-      <c r="M10" s="3">
+      <c r="M10" s="2">
         <v>0.1879445221748452</v>
       </c>
-      <c r="N10" s="3">
+      <c r="N10" s="2">
         <v>0.12630385807741651</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="2">
         <v>0.1699690338994696</v>
       </c>
-      <c r="P10" s="3">
+      <c r="P10" s="2">
         <v>0.1742345692291066</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="Q10" s="2">
         <v>0.2001511129898525</v>
       </c>
-      <c r="R10" s="3">
+      <c r="R10" s="2">
         <v>0.24477236519004189</v>
       </c>
-      <c r="S10" s="3">
+      <c r="S10" s="2">
         <v>0.1830861878771774</v>
       </c>
-      <c r="T10" s="3">
+      <c r="T10" s="2">
         <v>0.1133607986443837</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10" s="2">
         <v>0.1439996142713513</v>
       </c>
-      <c r="V10" s="3">
+      <c r="V10" s="2">
         <v>0.16128423978844</v>
       </c>
-      <c r="W10" s="3">
+      <c r="W10" s="2">
         <v>0.21130579173676969</v>
       </c>
-      <c r="X10" s="3">
+      <c r="X10" s="2">
         <v>0.20391047656717251</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Y10" s="2">
         <v>0.1667721842016234</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="Z10" s="2">
         <v>0.1117838883875247</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AA10" s="2">
         <v>0.1628997537380884</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AB10" s="2">
         <v>0.22461624031412031</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AC10" s="2">
         <v>0.24965103275746689</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AD10" s="2">
         <v>0.26474045004776331</v>
       </c>
-      <c r="AE10" s="3">
+      <c r="AE10" s="2">
         <v>0.2027382730489927</v>
       </c>
-      <c r="AF10" s="3">
+      <c r="AF10" s="2">
         <v>0.1158972112837528</v>
       </c>
-      <c r="AG10" s="3">
+      <c r="AG10" s="2">
         <v>0.169746011817519</v>
       </c>
-      <c r="AH10" s="3">
+      <c r="AH10" s="2">
         <v>0.21735339976021439</v>
       </c>
-      <c r="AI10" s="3">
+      <c r="AI10" s="2">
         <v>0.23422144723340729</v>
       </c>
-      <c r="AJ10" s="3">
+      <c r="AJ10" s="2">
         <v>0.26701264241115552</v>
       </c>
-      <c r="AK10" s="3">
+      <c r="AK10" s="2">
         <v>0.2008461425012098</v>
       </c>
-      <c r="AL10" s="3">
+      <c r="AL10" s="2">
         <v>0.11751086715113999</v>
       </c>
-      <c r="AM10" s="3">
+      <c r="AM10" s="2">
         <v>0.1740367742526219</v>
       </c>
-      <c r="AN10" s="3">
+      <c r="AN10" s="2">
         <v>0.23236747729751489</v>
       </c>
-      <c r="AO10" s="3">
+      <c r="AO10" s="2">
         <v>0.25359315240732738</v>
       </c>
-      <c r="AP10" s="3">
+      <c r="AP10" s="2">
         <v>0.26697351462225638</v>
       </c>
-      <c r="AQ10" s="3">
+      <c r="AQ10" s="2">
         <v>0.20889635714617219</v>
       </c>
-      <c r="AR10" s="3">
+      <c r="AR10" s="2">
         <v>0.1310946791012528</v>
       </c>
-      <c r="AS10" s="3">
+      <c r="AS10" s="2">
         <v>0.18865269526239681</v>
       </c>
-      <c r="AT10" s="3">
+      <c r="AT10" s="2">
         <v>0.21173584686749539</v>
       </c>
-      <c r="AU10" s="3">
+      <c r="AU10" s="2">
         <v>0.2309555350628768</v>
       </c>
-      <c r="AV10" s="3">
+      <c r="AV10" s="2">
         <v>0.26316625855256448</v>
       </c>
-      <c r="AW10" s="3">
+      <c r="AW10" s="2">
         <v>0.20512100296931729</v>
       </c>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B11">
@@ -1771,138 +1778,138 @@
       <c r="F11">
         <v>1.6629384053495899</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <v>1.3780191977395519</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <v>1.023572925214282</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="2">
         <v>1.4191382786945861</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>1.515710805705512</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11" s="2">
         <v>1.673966939649947</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11" s="2">
         <v>1.922860890134247</v>
       </c>
-      <c r="M11" s="3">
+      <c r="M11" s="2">
         <v>1.511049967879714</v>
       </c>
-      <c r="N11" s="3">
+      <c r="N11" s="2">
         <v>0.90785158007701827</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="2">
         <v>1.3953865877935969</v>
       </c>
-      <c r="P11" s="3">
+      <c r="P11" s="2">
         <v>1.421112010989565</v>
       </c>
-      <c r="Q11" s="3">
+      <c r="Q11" s="2">
         <v>1.4719851680748</v>
       </c>
-      <c r="R11" s="3">
+      <c r="R11" s="2">
         <v>1.7118520250467699</v>
       </c>
-      <c r="S11" s="3">
+      <c r="S11" s="2">
         <v>1.38163747439635</v>
       </c>
-      <c r="T11" s="3">
+      <c r="T11" s="2">
         <v>0.9676994985438282</v>
       </c>
-      <c r="U11" s="3">
+      <c r="U11" s="2">
         <v>1.4127041590800209</v>
       </c>
-      <c r="V11" s="3">
+      <c r="V11" s="2">
         <v>1.376807759764002</v>
       </c>
-      <c r="W11" s="3">
+      <c r="W11" s="2">
         <v>1.494705049385028</v>
       </c>
-      <c r="X11" s="3">
+      <c r="X11" s="2">
         <v>1.7827476802103039</v>
       </c>
-      <c r="Y11" s="3">
+      <c r="Y11" s="2">
         <v>1.406932829396637</v>
       </c>
-      <c r="Z11" s="3">
+      <c r="Z11" s="2">
         <v>0.92669000674530766</v>
       </c>
-      <c r="AA11" s="3">
+      <c r="AA11" s="2">
         <v>1.380169805078538</v>
       </c>
-      <c r="AB11" s="3">
+      <c r="AB11" s="2">
         <v>1.446968530251258</v>
       </c>
-      <c r="AC11" s="3">
+      <c r="AC11" s="2">
         <v>1.451961341240283</v>
       </c>
-      <c r="AD11" s="3">
+      <c r="AD11" s="2">
         <v>1.683116184836615</v>
       </c>
-      <c r="AE11" s="3">
+      <c r="AE11" s="2">
         <v>1.3777811736304011</v>
       </c>
-      <c r="AF11" s="3">
+      <c r="AF11" s="2">
         <v>0.9369949691740751</v>
       </c>
-      <c r="AG11" s="3">
+      <c r="AG11" s="2">
         <v>1.3466134329928341</v>
       </c>
-      <c r="AH11" s="3">
+      <c r="AH11" s="2">
         <v>1.4269559954492861</v>
       </c>
-      <c r="AI11" s="3">
+      <c r="AI11" s="2">
         <v>1.4528240862296029</v>
       </c>
-      <c r="AJ11" s="3">
+      <c r="AJ11" s="2">
         <v>1.6888304962652161</v>
       </c>
-      <c r="AK11" s="3">
+      <c r="AK11" s="2">
         <v>1.3704437960222029</v>
       </c>
-      <c r="AL11" s="3">
+      <c r="AL11" s="2">
         <v>0.92639782959544403</v>
       </c>
-      <c r="AM11" s="3">
+      <c r="AM11" s="2">
         <v>1.3790911998809059</v>
       </c>
-      <c r="AN11" s="3">
+      <c r="AN11" s="2">
         <v>1.4481422009109</v>
       </c>
-      <c r="AO11" s="3">
+      <c r="AO11" s="2">
         <v>1.453738007650754</v>
       </c>
-      <c r="AP11" s="3">
+      <c r="AP11" s="2">
         <v>1.685280169359811</v>
       </c>
-      <c r="AQ11" s="3">
+      <c r="AQ11" s="2">
         <v>1.378529881479563</v>
       </c>
-      <c r="AR11" s="3">
+      <c r="AR11" s="2">
         <v>1.1239295645127969</v>
       </c>
-      <c r="AS11" s="3">
+      <c r="AS11" s="2">
         <v>1.3337938960700979</v>
       </c>
-      <c r="AT11" s="3">
+      <c r="AT11" s="2">
         <v>1.483074553487264</v>
       </c>
-      <c r="AU11" s="3">
+      <c r="AU11" s="2">
         <v>1.5533772868381719</v>
       </c>
-      <c r="AV11" s="3">
+      <c r="AV11" s="2">
         <v>1.7115168402495251</v>
       </c>
-      <c r="AW11" s="3">
+      <c r="AW11" s="2">
         <v>1.441138428231572</v>
       </c>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="B12">
@@ -1920,138 +1927,138 @@
       <c r="F12">
         <v>10.35304847509269</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <v>7.5931249320733398</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <v>3.9744735254118928</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="2">
         <v>5.5733187733633924</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <v>6.1966150609392674</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="2">
         <v>6.6492322123424739</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="2">
         <v>7.4071236513230927</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="2">
         <v>5.9601526446760236</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="2">
         <v>3.865070111743993</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="2">
         <v>5.5896358134261597</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="2">
         <v>6.9444974372802903</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="2">
         <v>7.9318760334097256</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="2">
         <v>8.7344342380047983</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12" s="2">
         <v>6.6131027267729934</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T12" s="2">
         <v>3.5123338434725531</v>
       </c>
-      <c r="U12" s="3">
+      <c r="U12" s="2">
         <v>5.1277789485832832</v>
       </c>
-      <c r="V12" s="3">
+      <c r="V12" s="2">
         <v>5.9784424901057456</v>
       </c>
-      <c r="W12" s="3">
+      <c r="W12" s="2">
         <v>6.5834286264756443</v>
       </c>
-      <c r="X12" s="3">
+      <c r="X12" s="2">
         <v>7.4769358580312266</v>
       </c>
-      <c r="Y12" s="3">
+      <c r="Y12" s="2">
         <v>5.7357839533336907</v>
       </c>
-      <c r="Z12" s="3">
+      <c r="Z12" s="2">
         <v>4.2995855987106548</v>
       </c>
-      <c r="AA12" s="3">
+      <c r="AA12" s="2">
         <v>6.2043946606862423</v>
       </c>
-      <c r="AB12" s="3">
+      <c r="AB12" s="2">
         <v>7.000592835891811</v>
       </c>
-      <c r="AC12" s="3">
+      <c r="AC12" s="2">
         <v>7.2217276724164368</v>
       </c>
-      <c r="AD12" s="3">
+      <c r="AD12" s="2">
         <v>7.8488685431109317</v>
       </c>
-      <c r="AE12" s="3">
+      <c r="AE12" s="2">
         <v>6.5150338621632162</v>
       </c>
-      <c r="AF12" s="3">
+      <c r="AF12" s="2">
         <v>4.3846411591357812</v>
       </c>
-      <c r="AG12" s="3">
+      <c r="AG12" s="2">
         <v>6.3247705220396462</v>
       </c>
-      <c r="AH12" s="3">
+      <c r="AH12" s="2">
         <v>7.1515406568159836</v>
       </c>
-      <c r="AI12" s="3">
+      <c r="AI12" s="2">
         <v>7.4456597696248492</v>
       </c>
-      <c r="AJ12" s="3">
+      <c r="AJ12" s="2">
         <v>8.0521640847754288</v>
       </c>
-      <c r="AK12" s="3">
+      <c r="AK12" s="2">
         <v>6.6717552384783394</v>
       </c>
-      <c r="AL12" s="3">
+      <c r="AL12" s="2">
         <v>4.5332246144629957</v>
       </c>
-      <c r="AM12" s="3">
+      <c r="AM12" s="2">
         <v>6.6570212240729232</v>
       </c>
-      <c r="AN12" s="3">
+      <c r="AN12" s="2">
         <v>7.5181871501584236</v>
       </c>
-      <c r="AO12" s="3">
+      <c r="AO12" s="2">
         <v>7.7725801776801564</v>
       </c>
-      <c r="AP12" s="3">
+      <c r="AP12" s="2">
         <v>8.4423673607177001</v>
       </c>
-      <c r="AQ12" s="3">
+      <c r="AQ12" s="2">
         <v>6.9846761054184388</v>
       </c>
-      <c r="AR12" s="3">
+      <c r="AR12" s="2">
         <v>4.5131963347126929</v>
       </c>
-      <c r="AS12" s="3">
+      <c r="AS12" s="2">
         <v>6.6320017684154742</v>
       </c>
-      <c r="AT12" s="3">
+      <c r="AT12" s="2">
         <v>7.5196994034862259</v>
       </c>
-      <c r="AU12" s="3">
+      <c r="AU12" s="2">
         <v>7.7532841082052224</v>
       </c>
-      <c r="AV12" s="3">
+      <c r="AV12" s="2">
         <v>8.4183717898019843</v>
       </c>
-      <c r="AW12" s="3">
+      <c r="AW12" s="2">
         <v>6.967310680924319</v>
       </c>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B13">
@@ -2069,138 +2076,138 @@
       <c r="F13">
         <v>3.5628333657222231</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <v>2.613050535131975</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <v>1.3699708770845249</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="2">
         <v>1.848781405572538</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <v>1.947361090053074</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="2">
         <v>2.0929585782296942</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="2">
         <v>2.445748240603828</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="2">
         <v>1.9409640383087321</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="2">
         <v>1.0164166841063611</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="2">
         <v>1.4914093040514831</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="2">
         <v>1.9005849409913189</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13" s="2">
         <v>2.2531063885175939</v>
       </c>
-      <c r="R13" s="3">
+      <c r="R13" s="2">
         <v>2.431745816736036</v>
       </c>
-      <c r="S13" s="3">
+      <c r="S13" s="2">
         <v>1.818652626880559</v>
       </c>
-      <c r="T13" s="3">
+      <c r="T13" s="2">
         <v>1.09104014803363</v>
       </c>
-      <c r="U13" s="3">
+      <c r="U13" s="2">
         <v>1.513990891295347</v>
       </c>
-      <c r="V13" s="3">
+      <c r="V13" s="2">
         <v>1.7600991959453349</v>
       </c>
-      <c r="W13" s="3">
+      <c r="W13" s="2">
         <v>1.9061681535218391</v>
       </c>
-      <c r="X13" s="3">
+      <c r="X13" s="2">
         <v>2.126303297241785</v>
       </c>
-      <c r="Y13" s="3">
+      <c r="Y13" s="2">
         <v>1.6795203372075871</v>
       </c>
-      <c r="Z13" s="3">
+      <c r="Z13" s="2">
         <v>1.479489089196494</v>
       </c>
-      <c r="AA13" s="3">
+      <c r="AA13" s="2">
         <v>2.1399789865619518</v>
       </c>
-      <c r="AB13" s="3">
+      <c r="AB13" s="2">
         <v>2.426595185197447</v>
       </c>
-      <c r="AC13" s="3">
+      <c r="AC13" s="2">
         <v>2.4891412783665001</v>
       </c>
-      <c r="AD13" s="3">
+      <c r="AD13" s="2">
         <v>2.7027349556948121</v>
       </c>
-      <c r="AE13" s="3">
+      <c r="AE13" s="2">
         <v>2.2475878990034408</v>
       </c>
-      <c r="AF13" s="3">
+      <c r="AF13" s="2">
         <v>1.5095638750326521</v>
       </c>
-      <c r="AG13" s="3">
+      <c r="AG13" s="2">
         <v>2.1819304480538779</v>
       </c>
-      <c r="AH13" s="3">
+      <c r="AH13" s="2">
         <v>2.4673386905252048</v>
       </c>
-      <c r="AI13" s="3">
+      <c r="AI13" s="2">
         <v>2.560024636720641</v>
       </c>
-      <c r="AJ13" s="3">
+      <c r="AJ13" s="2">
         <v>2.7713584789024752</v>
       </c>
-      <c r="AK13" s="3">
+      <c r="AK13" s="2">
         <v>2.2980432258469699</v>
       </c>
-      <c r="AL13" s="3">
+      <c r="AL13" s="2">
         <v>1.207647407306123</v>
       </c>
-      <c r="AM13" s="3">
+      <c r="AM13" s="2">
         <v>1.5537466529254309</v>
       </c>
-      <c r="AN13" s="3">
+      <c r="AN13" s="2">
         <v>1.689277553528864</v>
       </c>
-      <c r="AO13" s="3">
+      <c r="AO13" s="2">
         <v>1.716505875564998</v>
       </c>
-      <c r="AP13" s="3">
+      <c r="AP13" s="2">
         <v>1.8115080623942801</v>
       </c>
-      <c r="AQ13" s="3">
+      <c r="AQ13" s="2">
         <v>1.5957371103439391</v>
       </c>
-      <c r="AR13" s="3">
+      <c r="AR13" s="2">
         <v>1.2033903304792111</v>
       </c>
-      <c r="AS13" s="3">
+      <c r="AS13" s="2">
         <v>1.5551687559346581</v>
       </c>
-      <c r="AT13" s="3">
+      <c r="AT13" s="2">
         <v>1.6865461205534109</v>
       </c>
-      <c r="AU13" s="3">
+      <c r="AU13" s="2">
         <v>1.720750820685518</v>
       </c>
-      <c r="AV13" s="3">
+      <c r="AV13" s="2">
         <v>1.8085651086807539</v>
       </c>
-      <c r="AW13" s="3">
+      <c r="AW13" s="2">
         <v>1.5948842272667101</v>
       </c>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B14">
@@ -2218,138 +2225,138 @@
       <c r="F14">
         <v>0.97959183673469385</v>
       </c>
-      <c r="G14" s="3">
+      <c r="G14" s="2">
         <v>0.96375510204081627</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <v>0.9</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="2">
         <v>0.88</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <v>0.88</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="2">
         <v>0.87755102040816324</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="2">
         <v>0.89795918367346939</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="2">
         <v>0.88710204081632649</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="2">
         <v>0.86</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="2">
         <v>0.9</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="2">
         <v>0.96</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="Q14" s="2">
         <v>0.93877551020408168</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="2">
         <v>0.95918367346938771</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="2">
         <v>0.92359183673469381</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="2">
         <v>0.86</v>
       </c>
-      <c r="U14" s="3">
+      <c r="U14" s="2">
         <v>0.92</v>
       </c>
-      <c r="V14" s="3">
+      <c r="V14" s="2">
         <v>0.86</v>
       </c>
-      <c r="W14" s="3">
+      <c r="W14" s="2">
         <v>0.91836734693877553</v>
       </c>
-      <c r="X14" s="3">
+      <c r="X14" s="2">
         <v>0.93877551020408168</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Y14" s="2">
         <v>0.89942857142857147</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="Z14" s="2">
         <v>0.92</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AA14" s="2">
         <v>0.92</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AB14" s="2">
         <v>0.9</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AC14" s="2">
         <v>0.91836734693877553</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AD14" s="2">
         <v>0.95918367346938771</v>
       </c>
-      <c r="AE14" s="3">
+      <c r="AE14" s="2">
         <v>0.92351020408163254</v>
       </c>
-      <c r="AF14" s="3">
+      <c r="AF14" s="2">
         <v>0.92</v>
       </c>
-      <c r="AG14" s="3">
+      <c r="AG14" s="2">
         <v>0.92</v>
       </c>
-      <c r="AH14" s="3">
+      <c r="AH14" s="2">
         <v>0.9</v>
       </c>
-      <c r="AI14" s="3">
+      <c r="AI14" s="2">
         <v>0.93877551020408168</v>
       </c>
-      <c r="AJ14" s="3">
+      <c r="AJ14" s="2">
         <v>0.95918367346938771</v>
       </c>
-      <c r="AK14" s="3">
+      <c r="AK14" s="2">
         <v>0.92759183673469392</v>
       </c>
-      <c r="AL14" s="3">
+      <c r="AL14" s="2">
         <v>0.96</v>
       </c>
-      <c r="AM14" s="3">
+      <c r="AM14" s="2">
         <v>0.94</v>
       </c>
-      <c r="AN14" s="3">
+      <c r="AN14" s="2">
         <v>0.94</v>
       </c>
-      <c r="AO14" s="3">
+      <c r="AO14" s="2">
         <v>0.91836734693877553</v>
       </c>
-      <c r="AP14" s="3">
+      <c r="AP14" s="2">
         <v>0.95918367346938771</v>
       </c>
-      <c r="AQ14" s="3">
+      <c r="AQ14" s="2">
         <v>0.94351020408163255</v>
       </c>
-      <c r="AR14" s="3">
+      <c r="AR14" s="2">
         <v>0.88</v>
       </c>
-      <c r="AS14" s="3">
+      <c r="AS14" s="2">
         <v>0.94</v>
       </c>
-      <c r="AT14" s="3">
+      <c r="AT14" s="2">
         <v>0.92</v>
       </c>
-      <c r="AU14" s="3">
+      <c r="AU14" s="2">
         <v>0.89795918367346939</v>
       </c>
-      <c r="AV14" s="3">
+      <c r="AV14" s="2">
         <v>0.95918367346938771</v>
       </c>
-      <c r="AW14" s="3">
+      <c r="AW14" s="2">
         <v>0.91942857142857137</v>
       </c>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="B15">
@@ -2367,133 +2374,133 @@
       <c r="F15">
         <v>0.59183673469387754</v>
       </c>
-      <c r="G15" s="3">
+      <c r="G15" s="2">
         <v>0.55697959183673462</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <v>0.36</v>
       </c>
-      <c r="I15" s="3">
+      <c r="I15" s="2">
         <v>0.46</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <v>0.36</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15" s="2">
         <v>0.38775510204081631</v>
       </c>
-      <c r="L15" s="3">
+      <c r="L15" s="2">
         <v>0.42857142857142849</v>
       </c>
-      <c r="M15" s="3">
+      <c r="M15" s="2">
         <v>0.39926530612244898</v>
       </c>
-      <c r="N15" s="3">
+      <c r="N15" s="2">
         <v>0.36</v>
       </c>
-      <c r="O15" s="3">
+      <c r="O15" s="2">
         <v>0.26</v>
       </c>
-      <c r="P15" s="3">
+      <c r="P15" s="2">
         <v>0.44</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="Q15" s="2">
         <v>0.48979591836734693</v>
       </c>
-      <c r="R15" s="3">
+      <c r="R15" s="2">
         <v>0.34693877551020408</v>
       </c>
-      <c r="S15" s="3">
+      <c r="S15" s="2">
         <v>0.37934693877551018</v>
       </c>
-      <c r="T15" s="3">
+      <c r="T15" s="2">
         <v>0.34</v>
       </c>
-      <c r="U15" s="3">
+      <c r="U15" s="2">
         <v>0.26</v>
       </c>
-      <c r="V15" s="3">
+      <c r="V15" s="2">
         <v>0.34</v>
       </c>
-      <c r="W15" s="3">
+      <c r="W15" s="2">
         <v>0.36734693877551022</v>
       </c>
-      <c r="X15" s="3">
+      <c r="X15" s="2">
         <v>0.36734693877551022</v>
       </c>
-      <c r="Y15" s="3">
+      <c r="Y15" s="2">
         <v>0.33493877551020412</v>
       </c>
-      <c r="Z15" s="3">
+      <c r="Z15" s="2">
         <v>0.38</v>
       </c>
-      <c r="AA15" s="3">
+      <c r="AA15" s="2">
         <v>0.38</v>
       </c>
-      <c r="AB15" s="3">
+      <c r="AB15" s="2">
         <v>0.5</v>
       </c>
-      <c r="AC15" s="3">
+      <c r="AC15" s="2">
         <v>0.51020408163265307</v>
       </c>
-      <c r="AD15" s="3">
+      <c r="AD15" s="2">
         <v>0.38775510204081631</v>
       </c>
-      <c r="AE15" s="3">
+      <c r="AE15" s="2">
         <v>0.43159183673469392</v>
       </c>
-      <c r="AF15" s="3">
+      <c r="AF15" s="2">
         <v>0.4</v>
       </c>
-      <c r="AG15" s="3">
+      <c r="AG15" s="2">
         <v>0.38</v>
       </c>
-      <c r="AH15" s="3">
+      <c r="AH15" s="2">
         <v>0.54</v>
       </c>
-      <c r="AI15" s="3">
+      <c r="AI15" s="2">
         <v>0.48979591836734693</v>
       </c>
-      <c r="AJ15" s="3">
+      <c r="AJ15" s="2">
         <v>0.42857142857142849</v>
       </c>
-      <c r="AK15" s="3">
+      <c r="AK15" s="2">
         <v>0.44767346938775499</v>
       </c>
-      <c r="AL15" s="3">
+      <c r="AL15" s="2">
         <v>0.36</v>
       </c>
-      <c r="AM15" s="3">
+      <c r="AM15" s="2">
         <v>0.28000000000000003</v>
       </c>
-      <c r="AN15" s="3">
+      <c r="AN15" s="2">
         <v>0.42</v>
       </c>
-      <c r="AO15" s="3">
+      <c r="AO15" s="2">
         <v>0.34693877551020408</v>
       </c>
-      <c r="AP15" s="3">
+      <c r="AP15" s="2">
         <v>0.24489795918367349</v>
       </c>
-      <c r="AQ15" s="3">
+      <c r="AQ15" s="2">
         <v>0.33036734693877551</v>
       </c>
-      <c r="AR15" s="3">
+      <c r="AR15" s="2">
         <v>0.34</v>
       </c>
-      <c r="AS15" s="3">
+      <c r="AS15" s="2">
         <v>0.34</v>
       </c>
-      <c r="AT15" s="3">
+      <c r="AT15" s="2">
         <v>0.38</v>
       </c>
-      <c r="AU15" s="3">
+      <c r="AU15" s="2">
         <v>0.2857142857142857</v>
       </c>
-      <c r="AV15" s="3">
+      <c r="AV15" s="2">
         <v>0.24489795918367349</v>
       </c>
-      <c r="AW15" s="3">
+      <c r="AW15" s="2">
         <v>0.31812244897959191</v>
       </c>
     </row>
